--- a/src/Controllers/Surveys/Surveys.xlsx
+++ b/src/Controllers/Surveys/Surveys.xlsx
@@ -5,28 +5,40 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\appweb-ssm-back\src\Controllers\Surveys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jency\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD481C41-BB6D-450D-9484-23A970EE22F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51CA2A77-D3E4-4F0C-A0B7-C3FC8D501A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EPS" sheetId="1" r:id="rId1"/>
     <sheet name="IPS Primaria" sheetId="2" r:id="rId2"/>
     <sheet name="Hospitalizaciones" sheetId="3" r:id="rId3"/>
-    <sheet name="Farmacia" sheetId="7" r:id="rId4"/>
-    <sheet name="Laboratorio" sheetId="4" r:id="rId5"/>
-    <sheet name="Medicina" sheetId="5" r:id="rId6"/>
-    <sheet name="Odontología" sheetId="6" r:id="rId7"/>
+    <sheet name="Farmacia" sheetId="4" r:id="rId4"/>
+    <sheet name="Laboratorio" sheetId="5" r:id="rId5"/>
+    <sheet name="Medicina" sheetId="6" r:id="rId6"/>
+    <sheet name="Odontología" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="78">
   <si>
     <t>Nombre de la EPS</t>
   </si>
@@ -70,6 +82,9 @@
     <t>La gestión que realiza la EAPB en beneficio a los usuarios es</t>
   </si>
   <si>
+    <t>Id</t>
+  </si>
+  <si>
     <t>Fecha de registro</t>
   </si>
   <si>
@@ -91,6 +106,9 @@
     <t>Sexo</t>
   </si>
   <si>
+    <t>edad</t>
+  </si>
+  <si>
     <t>Celular</t>
   </si>
   <si>
@@ -139,6 +157,27 @@
     <t>Califique  en conjunto la  satisfacción de la atención brindada  durante la  hospitalización</t>
   </si>
   <si>
+    <t>El trato de la persona que le entrego los medicamentos  fue</t>
+  </si>
+  <si>
+    <t>Califique la comodidad  del área  para recibir los medicamentos</t>
+  </si>
+  <si>
+    <t>Califique  el tiempo  de espera desde el momento  de entrega de la formula  y la recepción  de los medicamentos.</t>
+  </si>
+  <si>
+    <t>¿Fue entregado la totalidad de los medicamentos?</t>
+  </si>
+  <si>
+    <t>¿Entregaron el medicamento según lo formulado?</t>
+  </si>
+  <si>
+    <t>La farmacia ofrece el servicio de entrega de medicamentos a domicilio?</t>
+  </si>
+  <si>
+    <t>Califique en general el servicio de Farmacia.</t>
+  </si>
+  <si>
     <t>Considera que el horario establecido para la atención es</t>
   </si>
   <si>
@@ -184,9 +223,6 @@
     <t>Califique la privacidad y comodidad del consultorio</t>
   </si>
   <si>
-    <t>Califique su satisfacción con  la atención recibida por el profesional en consultorio</t>
-  </si>
-  <si>
     <t>Califique su satisfacción en general con la atención recibida en el servicio de medicina general</t>
   </si>
   <si>
@@ -196,37 +232,46 @@
     <t>¿El profesional tenia buena disposición para atenderlo?</t>
   </si>
   <si>
-    <t>Califique la privacidad y comodidad del consultorio.</t>
-  </si>
-  <si>
-    <t>El trato de la persona que le entrego los medicamentos  fue</t>
-  </si>
-  <si>
-    <t>Califique la comodidad  del área  para recibir los medicamentos</t>
-  </si>
-  <si>
-    <t>Califique  el tiempo  de espera desde el momento  de entrega de la formula  y la recepción  de los medicamentos.</t>
-  </si>
-  <si>
-    <t>¿Fue entregado la totalidad de los medicamentos?</t>
-  </si>
-  <si>
-    <t>¿Entregaron el medicamento según lo formulado?</t>
-  </si>
-  <si>
-    <t>La farmacia ofrece el servicio de entrega de medicamentos a domicilio?</t>
-  </si>
-  <si>
-    <t>Califique en general el servicio de Farmacia.</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>La atencion de la persona que lo recibio fue amable y oportuna?</t>
+  </si>
+  <si>
+    <t>El personal que le informo sobre el tramite que debia seguir fue claro, le supo dar la indicacione?</t>
+  </si>
+  <si>
+    <t>Cuando usted solicita una cita médica, le asignan la cita para</t>
+  </si>
+  <si>
+    <t>En el momento que la IPS le solicita el nombre de la EPS a la cual esta afiliado la reacción fue con</t>
+  </si>
+  <si>
+    <t>El tiempo de espera entre la hora de la cita asignada y el momento real de la atención fue</t>
   </si>
   <si>
     <t>Indique en cuales de los siguientes servicios fue atendido</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>edad</t>
+    <t>Cómo califica la higiene en la IPS</t>
+  </si>
+  <si>
+    <t>¿Considera que la IPS asignada cumple con sus necesidades?</t>
+  </si>
+  <si>
+    <t>Califique el servicio de la IPS en general</t>
+  </si>
+  <si>
+    <t>Indique el tiempo en sala de espera</t>
+  </si>
+  <si>
+    <t>Califique su satisfacción en general con la atención recibida en el servicio de odontologia</t>
+  </si>
+  <si>
+    <t>Califique la explicación sobre exámenes y tratamiento a seguir</t>
+  </si>
+  <si>
+    <t>Califique su satisfacción con la atención recibida por el profesional en consultorio</t>
   </si>
 </sst>
 </file>
@@ -249,10 +294,9 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,18 +317,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor rgb="FFBFBFBF"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -308,17 +346,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -339,6 +366,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -354,203 +429,231 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -850,45 +953,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC33"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.42578125" style="50" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" style="41" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="18" customWidth="1"/>
+    <col min="1" max="1" width="7.42578125" style="42" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="18" style="51" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" style="19" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" style="20" customWidth="1"/>
     <col min="6" max="6" width="19" style="18" customWidth="1"/>
     <col min="7" max="7" width="23.7109375" style="18" customWidth="1"/>
-    <col min="8" max="9" width="9" style="18"/>
+    <col min="8" max="8" width="5.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" style="20" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" style="20" customWidth="1"/>
-    <col min="11" max="11" width="46.7109375" style="18" customWidth="1"/>
-    <col min="12" max="12" width="21.5703125" style="19" customWidth="1"/>
+    <col min="11" max="11" width="26" style="18" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="19" customWidth="1"/>
     <col min="13" max="13" width="24.85546875" style="19" customWidth="1"/>
     <col min="14" max="14" width="9" style="20"/>
     <col min="15" max="15" width="9.7109375" style="20" customWidth="1"/>
     <col min="16" max="23" width="9" style="20"/>
     <col min="24" max="25" width="10" style="20" customWidth="1"/>
     <col min="26" max="26" width="9" style="20"/>
-    <col min="27" max="16384" width="9" style="3"/>
+    <col min="27" max="27" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="164.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="49"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
       <c r="J1" s="12"/>
       <c r="K1" s="13"/>
       <c r="L1" s="14" t="s">
@@ -898,7 +1002,7 @@
         <v>1</v>
       </c>
       <c r="N1" s="15" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="O1" s="15" t="s">
         <v>2</v>
@@ -941,38 +1045,38 @@
       <c r="AC1" s="2"/>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="39" t="s">
+      <c r="A2" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="B2" s="34" t="s">
         <v>15</v>
       </c>
+      <c r="C2" s="50" t="s">
+        <v>16</v>
+      </c>
       <c r="D2" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="16" t="s">
-        <v>66</v>
+      <c r="H2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L2" s="17">
         <v>1</v>
@@ -1011,112 +1115,22 @@
         <v>12</v>
       </c>
       <c r="X2" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Y2" s="17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Z2" s="17">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B3" s="40"/>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B4" s="40"/>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B5" s="40"/>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B6" s="40"/>
-    </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B7" s="40"/>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B8" s="40"/>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B9" s="40"/>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B10" s="40"/>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B11" s="40"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B12" s="40"/>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B13" s="40"/>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B14" s="40"/>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B15" s="40"/>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="B16" s="40"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="40"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="40"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="40"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="40"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="40"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="40"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="40"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="40"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="40"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="40"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="40"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="40"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="40"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="40"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="40"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="40"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="40"/>
-    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1126,112 +1140,115 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="50"/>
-    <col min="2" max="2" width="23" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" style="9" customWidth="1"/>
+    <col min="1" max="1" width="9" style="42"/>
+    <col min="2" max="2" width="23" style="39" customWidth="1"/>
+    <col min="3" max="3" width="16" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="6" style="9" customWidth="1"/>
+    <col min="6" max="6" width="9" style="9"/>
+    <col min="7" max="7" width="10.85546875" style="9" customWidth="1"/>
+    <col min="8" max="9" width="6" style="9" customWidth="1"/>
     <col min="10" max="10" width="13.42578125" style="10" customWidth="1"/>
-    <col min="11" max="11" width="18" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18" style="9" customWidth="1"/>
+    <col min="12" max="12" width="21" style="9" customWidth="1"/>
     <col min="13" max="13" width="10" style="9" customWidth="1"/>
     <col min="14" max="14" width="9.85546875" style="10" customWidth="1"/>
-    <col min="15" max="15" width="24.42578125" style="9" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" style="9" customWidth="1"/>
-    <col min="17" max="17" width="18" style="9" customWidth="1"/>
-    <col min="18" max="18" width="25" style="9" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" style="11" customWidth="1"/>
+    <col min="15" max="15" width="19.140625" style="9" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" style="9" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" style="9" customWidth="1"/>
+    <col min="18" max="18" width="17.7109375" style="9" customWidth="1"/>
+    <col min="19" max="19" width="8.140625" style="11" customWidth="1"/>
     <col min="20" max="20" width="5.5703125" style="10" customWidth="1"/>
-    <col min="21" max="21" width="9.85546875" style="9" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="3"/>
+    <col min="21" max="21" width="7.85546875" style="9" customWidth="1"/>
+    <col min="22" max="22" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="164.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49"/>
-      <c r="B1" s="55"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="54"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="46" t="s">
+        <v>64</v>
+      </c>
       <c r="L1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>8</v>
+        <v>66</v>
+      </c>
+      <c r="O1" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="P1" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" s="53" t="s">
+        <v>69</v>
+      </c>
+      <c r="R1" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="S1" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="T1" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="U1" s="53" t="s">
+        <v>73</v>
       </c>
       <c r="V1" s="2"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="56" t="s">
+      <c r="A2" s="43" t="s">
         <v>14</v>
       </c>
+      <c r="B2" s="48" t="s">
+        <v>15</v>
+      </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L2" s="7">
         <v>1</v>
@@ -1267,6 +1284,9 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
@@ -1274,26 +1294,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="50"/>
-    <col min="2" max="2" width="24" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="42"/>
+    <col min="2" max="2" width="24" style="37" customWidth="1"/>
+    <col min="3" max="3" width="17" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13" style="11" customWidth="1"/>
+    <col min="5" max="5" width="6" style="10" customWidth="1"/>
     <col min="6" max="6" width="17.140625" style="9" customWidth="1"/>
     <col min="7" max="7" width="22.140625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" style="10" customWidth="1"/>
-    <col min="10" max="10" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6" style="10" customWidth="1"/>
+    <col min="10" max="10" width="13" style="10" customWidth="1"/>
+    <col min="11" max="11" width="22" style="9" customWidth="1"/>
     <col min="12" max="12" width="28.7109375" style="9" customWidth="1"/>
     <col min="13" max="13" width="22.28515625" style="9" customWidth="1"/>
     <col min="14" max="14" width="20" style="11" customWidth="1"/>
@@ -1304,12 +1323,12 @@
     <col min="19" max="19" width="11.140625" style="10" customWidth="1"/>
     <col min="20" max="20" width="16" style="10" customWidth="1"/>
     <col min="21" max="21" width="13.5703125" style="11" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="3"/>
+    <col min="22" max="22" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="164.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49"/>
-      <c r="B1" s="46"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="3"/>
       <c r="D1" s="25"/>
       <c r="E1" s="26"/>
@@ -1320,69 +1339,69 @@
       <c r="J1" s="26"/>
       <c r="K1" s="3"/>
       <c r="L1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>14</v>
       </c>
+      <c r="B2" s="38" t="s">
+        <v>15</v>
+      </c>
       <c r="C2" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L2" s="24">
         <v>1</v>
@@ -1415,145 +1434,51 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B3" s="45"/>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B4" s="45"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="45"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="45"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="45"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="45"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="45"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="45"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="45"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="45"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="45"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="45"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="45"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="45"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="45"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="45"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="45"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="45"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="45"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="45"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="45"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="45"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="45"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="45"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="45"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="45"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="45"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="45"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="45"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="45"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="45"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="45"/>
-    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:V32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="50"/>
-    <col min="2" max="2" width="24" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" style="9" customWidth="1"/>
-    <col min="10" max="10" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="42"/>
+    <col min="2" max="2" width="21.7109375" style="37" customWidth="1"/>
+    <col min="3" max="3" width="17" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13" style="11" customWidth="1"/>
+    <col min="5" max="5" width="6" style="10" customWidth="1"/>
+    <col min="6" max="6" width="16" style="9" customWidth="1"/>
+    <col min="7" max="7" width="12" style="9" customWidth="1"/>
+    <col min="8" max="9" width="6" style="9" customWidth="1"/>
+    <col min="10" max="10" width="13" style="10" customWidth="1"/>
+    <col min="11" max="11" width="12" style="9" customWidth="1"/>
+    <col min="12" max="12" width="21" style="9" customWidth="1"/>
     <col min="13" max="14" width="10.5703125" style="11" customWidth="1"/>
     <col min="15" max="15" width="13.42578125" style="11" customWidth="1"/>
     <col min="16" max="16" width="6.140625" style="10" customWidth="1"/>
     <col min="17" max="17" width="6.42578125" style="10" customWidth="1"/>
     <col min="18" max="18" width="11.85546875" style="11" customWidth="1"/>
     <col min="19" max="19" width="10.7109375" style="11" customWidth="1"/>
-    <col min="20" max="21" width="10" style="26" customWidth="1"/>
-    <col min="22" max="22" width="9" style="26"/>
-    <col min="23" max="16384" width="9" style="3"/>
+    <col min="20" max="20" width="14.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" style="26"/>
+    <col min="22" max="22" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="164.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49"/>
-      <c r="B1" s="46"/>
+    <row r="1" spans="1:21" ht="164.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="3"/>
       <c r="D1" s="25"/>
       <c r="E1" s="26"/>
@@ -1562,233 +1487,197 @@
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="26"/>
-      <c r="K1" s="52"/>
+      <c r="K1" s="44"/>
       <c r="L1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T1" s="35"/>
+        <v>45</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>74</v>
+      </c>
       <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="42" t="s">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
         <v>14</v>
       </c>
+      <c r="B2" s="36" t="s">
+        <v>15</v>
+      </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="36">
+        <v>24</v>
+      </c>
+      <c r="L2" s="31">
         <v>1</v>
       </c>
-      <c r="M2" s="37">
+      <c r="M2" s="32">
         <v>2</v>
       </c>
-      <c r="N2" s="37">
+      <c r="N2" s="32">
         <v>3</v>
       </c>
-      <c r="O2" s="37">
+      <c r="O2" s="32">
         <v>4</v>
       </c>
-      <c r="P2" s="37">
+      <c r="P2" s="32">
         <v>5</v>
       </c>
-      <c r="Q2" s="37">
+      <c r="Q2" s="32">
         <v>6</v>
       </c>
-      <c r="R2" s="37">
+      <c r="R2" s="32">
         <v>7</v>
       </c>
-      <c r="S2" s="37">
+      <c r="S2" s="32">
         <v>8</v>
       </c>
-      <c r="T2" s="35"/>
+      <c r="T2" s="55">
+        <v>9</v>
+      </c>
       <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="48"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="31"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="45"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B5" s="45"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B6" s="45"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B7" s="45"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B8" s="45"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B9" s="45"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B10" s="45"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B11" s="45"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="45"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B13" s="45"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B14" s="45"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="45"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="45"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="45"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="45"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="45"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="45"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="45"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="45"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="45"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="45"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="45"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="45"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="45"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="45"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="45"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="45"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="45"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="45"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S3" s="54"/>
+      <c r="T3" s="56"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S4" s="54"/>
+      <c r="T4" s="56"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S5" s="54"/>
+      <c r="T5" s="56"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S6" s="54"/>
+      <c r="T6" s="56"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S7" s="54"/>
+      <c r="T7" s="56"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S8" s="54"/>
+      <c r="T8" s="56"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S9" s="54"/>
+      <c r="T9" s="56"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S10" s="54"/>
+      <c r="T10" s="56"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S11" s="54"/>
+      <c r="T11" s="56"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S12" s="54"/>
+      <c r="T12" s="56"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S13" s="54"/>
+      <c r="T13" s="56"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S14" s="54"/>
+      <c r="T14" s="56"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S15" s="54"/>
+      <c r="T15" s="56"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="S16" s="54"/>
+      <c r="T16" s="56"/>
+    </row>
+    <row r="17" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S17" s="54"/>
+      <c r="T17" s="56"/>
+    </row>
+    <row r="18" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S18" s="54"/>
+      <c r="T18" s="56"/>
+    </row>
+    <row r="19" spans="19:20" x14ac:dyDescent="0.25">
+      <c r="S19" s="54"/>
+      <c r="T19" s="56"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AA32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:AA2"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="50"/>
-    <col min="2" max="2" width="24" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" style="9" customWidth="1"/>
-    <col min="10" max="10" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27" style="9" customWidth="1"/>
+    <col min="1" max="1" width="9" style="42"/>
+    <col min="2" max="2" width="24" style="37" customWidth="1"/>
+    <col min="3" max="3" width="17" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13" style="11" customWidth="1"/>
+    <col min="5" max="5" width="6" style="10" customWidth="1"/>
+    <col min="6" max="7" width="17" style="9" customWidth="1"/>
+    <col min="8" max="9" width="6" style="9" customWidth="1"/>
+    <col min="10" max="10" width="13" style="10" customWidth="1"/>
+    <col min="11" max="11" width="38" style="9" customWidth="1"/>
+    <col min="12" max="12" width="23.28515625" style="9" customWidth="1"/>
     <col min="13" max="14" width="11.42578125" style="11" customWidth="1"/>
     <col min="15" max="15" width="16.28515625" style="11" customWidth="1"/>
     <col min="16" max="16" width="17.28515625" style="11" customWidth="1"/>
@@ -1799,12 +1688,12 @@
     <col min="22" max="23" width="9" style="26"/>
     <col min="24" max="25" width="10" style="26" customWidth="1"/>
     <col min="26" max="26" width="9" style="26"/>
-    <col min="27" max="16384" width="9" style="3"/>
+    <col min="27" max="27" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="164.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49"/>
-      <c r="B1" s="46"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="3"/>
       <c r="D1" s="25"/>
       <c r="E1" s="26"/>
@@ -1815,34 +1704,34 @@
       <c r="J1" s="26"/>
       <c r="K1" s="3"/>
       <c r="L1" s="27" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="V1" s="28"/>
       <c r="W1" s="28"/>
@@ -1852,38 +1741,38 @@
       <c r="AA1" s="28"/>
     </row>
     <row r="2" spans="1:27" ht="14.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>14</v>
       </c>
+      <c r="B2" s="38" t="s">
+        <v>15</v>
+      </c>
       <c r="C2" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L2" s="23">
         <v>1</v>
@@ -1922,154 +1811,47 @@
       <c r="Z2" s="28"/>
       <c r="AA2" s="28"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B3" s="45"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B4" s="45"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B5" s="45"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B6" s="45"/>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B7" s="45"/>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B8" s="45"/>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B9" s="45"/>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B10" s="45"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B11" s="45"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B12" s="45"/>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B13" s="45"/>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B14" s="45"/>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B15" s="45"/>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B16" s="45"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="45"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="45"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="45"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="45"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="45"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="45"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="45"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="45"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="45"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="45"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="45"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="45"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="45"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="45"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="45"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="45"/>
-    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Z3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="50"/>
-    <col min="2" max="2" width="24" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" style="9" customWidth="1"/>
-    <col min="10" max="10" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22" style="9" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="42"/>
+    <col min="2" max="2" width="24" style="37" customWidth="1"/>
+    <col min="3" max="3" width="17" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13" style="11" customWidth="1"/>
+    <col min="5" max="5" width="6" style="10" customWidth="1"/>
+    <col min="6" max="6" width="16" style="9" customWidth="1"/>
+    <col min="7" max="7" width="17" style="9" customWidth="1"/>
+    <col min="8" max="9" width="6" style="9" customWidth="1"/>
+    <col min="10" max="10" width="13" style="10" customWidth="1"/>
+    <col min="11" max="11" width="22" style="9" customWidth="1"/>
+    <col min="12" max="12" width="21" style="9" customWidth="1"/>
     <col min="13" max="13" width="16.42578125" style="9" customWidth="1"/>
     <col min="14" max="14" width="12" style="10" customWidth="1"/>
     <col min="15" max="15" width="6.140625" style="10" customWidth="1"/>
     <col min="16" max="16" width="6" style="10" customWidth="1"/>
     <col min="17" max="21" width="11" style="11" customWidth="1"/>
-    <col min="22" max="23" width="9" style="26"/>
-    <col min="24" max="25" width="10" style="26" customWidth="1"/>
-    <col min="26" max="26" width="9" style="26"/>
-    <col min="27" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="9" customFormat="1" ht="164.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49"/>
-      <c r="B1" s="46"/>
+    <row r="1" spans="1:22" s="9" customFormat="1" ht="164.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="3"/>
       <c r="D1" s="25"/>
       <c r="E1" s="26"/>
@@ -2080,72 +1862,69 @@
       <c r="J1" s="26"/>
       <c r="K1" s="3"/>
       <c r="L1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="29" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="N1" s="29" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="O1" s="29" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="P1" s="29" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="29" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R1" s="29" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="S1" s="29" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="T1" s="29" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="U1" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
-    </row>
-    <row r="2" spans="1:24" s="9" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="42" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="43" t="s">
         <v>14</v>
       </c>
+      <c r="B2" s="36" t="s">
+        <v>15</v>
+      </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L2" s="24">
         <v>1</v>
@@ -2177,59 +1956,40 @@
       <c r="U2" s="24">
         <v>10</v>
       </c>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B3" s="47"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
+      <c r="V2" s="57" t="s">
+        <v>64</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Z32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:AA2"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="50"/>
-    <col min="2" max="2" width="24" style="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="17" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" style="9" customWidth="1"/>
-    <col min="10" max="10" width="13" style="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="38" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="42"/>
+    <col min="2" max="2" width="24" style="37" customWidth="1"/>
+    <col min="3" max="3" width="17" style="9" customWidth="1"/>
+    <col min="4" max="4" width="13" style="11" customWidth="1"/>
+    <col min="5" max="5" width="6" style="10" customWidth="1"/>
+    <col min="6" max="7" width="17" style="9" customWidth="1"/>
+    <col min="8" max="9" width="6" style="9" customWidth="1"/>
+    <col min="10" max="10" width="13" style="10" customWidth="1"/>
+    <col min="11" max="11" width="38" style="9" customWidth="1"/>
     <col min="12" max="12" width="28.5703125" style="9" customWidth="1"/>
     <col min="13" max="13" width="19.5703125" style="9" customWidth="1"/>
     <col min="14" max="14" width="10.85546875" style="11" customWidth="1"/>
@@ -2238,12 +1998,12 @@
     <col min="22" max="23" width="9" style="26"/>
     <col min="24" max="25" width="10" style="26" customWidth="1"/>
     <col min="26" max="26" width="9" style="26"/>
-    <col min="27" max="16384" width="9" style="3"/>
+    <col min="27" max="27" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="164.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49"/>
-      <c r="B1" s="46"/>
+      <c r="A1" s="41"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="3"/>
       <c r="D1" s="25"/>
       <c r="E1" s="26"/>
@@ -2254,34 +2014,34 @@
       <c r="J1" s="26"/>
       <c r="K1" s="3"/>
       <c r="L1" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="V1" s="2"/>
       <c r="W1" s="3"/>
@@ -2290,38 +2050,38 @@
       <c r="Z1" s="3"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="44" t="s">
+      <c r="A2" s="43" t="s">
         <v>14</v>
       </c>
+      <c r="B2" s="38" t="s">
+        <v>15</v>
+      </c>
       <c r="C2" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" s="21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K2" s="21" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L2" s="24">
         <v>1</v>
@@ -2329,7 +2089,7 @@
       <c r="M2" s="24">
         <v>2</v>
       </c>
-      <c r="N2" s="34">
+      <c r="N2" s="30">
         <v>3</v>
       </c>
       <c r="O2" s="24">
@@ -2338,19 +2098,19 @@
       <c r="P2" s="24">
         <v>5</v>
       </c>
-      <c r="Q2" s="34">
+      <c r="Q2" s="30">
         <v>6</v>
       </c>
-      <c r="R2" s="34">
+      <c r="R2" s="30">
         <v>7</v>
       </c>
-      <c r="S2" s="34">
+      <c r="S2" s="30">
         <v>8</v>
       </c>
-      <c r="T2" s="34">
+      <c r="T2" s="30">
         <v>9</v>
       </c>
-      <c r="U2" s="34">
+      <c r="U2" s="30">
         <v>10</v>
       </c>
       <c r="V2" s="2"/>
@@ -2359,113 +2119,11 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B3" s="45"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
-      <c r="Z3" s="3"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B4" s="45"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B5" s="45"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
-      <c r="Z5" s="3"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B6" s="45"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B7" s="45"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B8" s="45"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B9" s="45"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B10" s="45"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B11" s="45"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B12" s="45"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B13" s="45"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B14" s="45"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B15" s="45"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B16" s="45"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="45"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="45"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="45"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="45"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="45"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="45"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="45"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="45"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="45"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="45"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="45"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="45"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="45"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="45"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="45"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="45"/>
-    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>